--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\Downloads\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B55B5D-67CF-49EE-A32E-C12F10944C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E88BD-FE7A-4DC0-B1A8-F6618BE67920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>להוסיף הכל ובסוף לרסק</t>
+  </si>
+  <si>
+    <t>desert|dairy</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -774,7 +777,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>74</v>

--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\Downloads\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E88BD-FE7A-4DC0-B1A8-F6618BE67920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A057006-640D-41C1-90A8-F3068D4197E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -107,9 +107,6 @@
     <t>בורמוליקוס לפסח</t>
   </si>
   <si>
-    <t>/recipes/images/4.1.jpg</t>
-  </si>
-  <si>
     <t>holydays</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>לקחת בערך 2 שליש מהקופסה של העוף, לערבב עם הבצל קצוץ, לשים בו בהרת ומלח|לקחת את הסולת (כל פעם ערימה) לשים קצת מלח, מים וליצור בצק|לשים את העוף בכדורים קטנים של הבצק על מגש עם ניילון ולהקפיא|רוטב: לטגן בצל קצוץ (שמן קנולה), לשים קופסה קטנה של רסק עגבניות, מים רותחים, כוסברה ופטרוזיליה, מלח פלפל. לזרוק כמה קובה לבפנים ולדאוג שלא ידבקו. לחכות כמה דקות כשרותח ואז להוריד לאש קטנה למשך חצי שעה</t>
   </si>
   <si>
-    <t>/recipes/images/13.jpg</t>
-  </si>
-  <si>
     <t>עוגת מצות של פעם</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>כוס סוכר|חצי כוס מים|2 ביצים|אוראו דקים|שוקולד חלב</t>
   </si>
   <si>
-    <t>/recipes/images/16.jpg</t>
-  </si>
-  <si>
     <t>קיצ'רי</t>
   </si>
   <si>
@@ -287,12 +278,6 @@
     <t>עוגת תפוחים מהירה</t>
   </si>
   <si>
-    <t>/recipes/images/18.jpg</t>
-  </si>
-  <si>
-    <t>עוגת התפוחים הכי טעימה</t>
-  </si>
-  <si>
     <t>3-4 תפוחי גרנד סמית חמוצים|כף סוכר חום|כפית קינמון</t>
   </si>
   <si>
@@ -315,6 +300,51 @@
   </si>
   <si>
     <t>desert|dairy</t>
+  </si>
+  <si>
+    <t>עוגיות מושלגות</t>
+  </si>
+  <si>
+    <t>/recipes/images/2.jpg</t>
+  </si>
+  <si>
+    <t>/recipes/images/3.jpg</t>
+  </si>
+  <si>
+    <t>/recipes/images/6.jpg</t>
+  </si>
+  <si>
+    <t>/recipes/images/7.jpg</t>
+  </si>
+  <si>
+    <t>/recipes/images/4.jpg</t>
+  </si>
+  <si>
+    <t>/recipes/images/5.jpg</t>
+  </si>
+  <si>
+    <t>2 חבילות שוקולד מריר|60 גרם חמאה|2 ביצים|&amp;frac12; כוס סוכר|1 כפית תמצית וניל|1 כוס קמח|&amp;frac14; כוס קקאו|1 כפית אבקת אפיה|קורט מלח</t>
+  </si>
+  <si>
+    <t>תודה לספיר</t>
+  </si>
+  <si>
+    <t>ממיסים את השוקולד עם החמאה|במקביל מקציפים את הביצים, הסוכר ותמצית הוניל|שופכים את השוקולד לתערובת אחידה|שופכים את הקמח, הקקאו, אבקת האפיה והמלח|מערבבים שוב הכל ביחד לתערובת אחידה|מכניסים לשעתיים במקרר|עושים כדורים, טובלים באבקת סוכר, מניחים בתבנית ומכניסים לתנור על 180 מעלות ל8-12 דקות</t>
+  </si>
+  <si>
+    <t>אלפחורס</t>
+  </si>
+  <si>
+    <t>למלית|ריבת חלב וקוקוס</t>
+  </si>
+  <si>
+    <t>לערבב את החמאה ואבקת הסוכר לקרם חמאה|להוסיף את היבשים והחלמונים|לאפות על 170 מעלות ולהוציא כשעדיין רך אחרי 6 דקות</t>
+  </si>
+  <si>
+    <t>הכי טעים</t>
+  </si>
+  <si>
+    <t>90 גרם חמאה קוביות|90 גרם אבקת סוכר|105 גרם קמח|90 גרם קורנפלור|1 כפית אבקת אפייה|2 חלמונים</t>
   </si>
 </sst>
 </file>
@@ -700,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37869A0A-AC41-4FF8-85BB-2923FC0BB26B}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,22 +801,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -794,19 +824,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -814,25 +844,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -840,22 +870,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -863,19 +893,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -886,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -906,19 +936,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -926,19 +959,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -946,19 +979,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -966,16 +999,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -983,19 +1016,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1003,19 +1036,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1023,16 +1062,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1040,19 +1082,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1060,16 +1099,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1077,16 +1119,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1094,16 +1136,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1111,16 +1153,53 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\Downloads\einav-yehezkely.github.io\recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\clone_here\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A057006-640D-41C1-90A8-F3068D4197E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB450EB-0E08-4CFE-A500-D62A89DE238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -266,9 +266,6 @@
     <t>קיצ'רי</t>
   </si>
   <si>
-    <t>2 שיני שום|חמאה|&amp;frac12;1 כוס אורז|1 כוס אדשים אדומות|3 כוסות מים|1 רסק עגבניות|פלפל|מלח</t>
-  </si>
-  <si>
     <t>לטגן את שיני השום בחמאה|להוסיף את שאר הדברים</t>
   </si>
   <si>
@@ -345,6 +342,12 @@
   </si>
   <si>
     <t>90 גרם חמאה קוביות|90 גרם אבקת סוכר|105 גרם קמח|90 גרם קורנפלור|1 כפית אבקת אפייה|2 חלמונים</t>
+  </si>
+  <si>
+    <t>/recipes/images/8.jpg</t>
+  </si>
+  <si>
+    <t>2 שיני שום|חמאה|&amp;frac12;1 כוס אורז|1 כוס עדשים אדומות|3 כוסות מים|1 רסק עגבניות|פלפל|מלח</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -804,10 +807,10 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>72</v>
@@ -830,13 +833,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -844,25 +847,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -873,7 +876,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
@@ -916,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -936,22 +939,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -981,6 +984,9 @@
       <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1036,25 +1042,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1170,16 +1176,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">

--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\clone_here\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB450EB-0E08-4CFE-A500-D62A89DE238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C15F9-E029-4838-91EE-EBC417CE12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>2 שיני שום|חמאה|&amp;frac12;1 כוס אורז|1 כוס עדשים אדומות|3 כוסות מים|1 רסק עגבניות|פלפל|מלח</t>
+  </si>
+  <si>
+    <t>מרציפן</t>
+  </si>
+  <si>
+    <t>/recipes/images/9.jpg</t>
+  </si>
+  <si>
+    <t>200 ג' קמח שקדים|100 ג' אבקת סוכר|מיץ לימון מחצי לימון קטן</t>
+  </si>
+  <si>
+    <t>מחממים על אש נמוכה|מערבבים ומוסיפים כמה כפות מים עד לערבוב אחיד|כשמוכן מוציאים ועושים כדורים|משטחים לצורת מטבע או כל צורה אחרת|בהצלחה!</t>
   </si>
 </sst>
 </file>
@@ -733,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37869A0A-AC41-4FF8-85BB-2923FC0BB26B}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1208,6 +1220,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\clone_here\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C15F9-E029-4838-91EE-EBC417CE12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A64C4-EE9B-45CF-B6B9-EC1EE99CAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>מחממים על אש נמוכה|מערבבים ומוסיפים כמה כפות מים עד לערבוב אחיד|כשמוכן מוציאים ועושים כדורים|משטחים לצורת מטבע או כל צורה אחרת|בהצלחה!</t>
+  </si>
+  <si>
+    <t>/recipes/images/10.jpg</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -841,6 +844,9 @@
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>

--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\clone_here\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A64C4-EE9B-45CF-B6B9-EC1EE99CAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E389AEC0-BD27-4251-AC79-AF34C856AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
@@ -362,7 +362,7 @@
     <t>מחממים על אש נמוכה|מערבבים ומוסיפים כמה כפות מים עד לערבוב אחיד|כשמוכן מוציאים ועושים כדורים|משטחים לצורת מטבע או כל צורה אחרת|בהצלחה!</t>
   </si>
   <si>
-    <t>/recipes/images/10.jpg</t>
+    <t>/recipes/images/11.jpg</t>
   </si>
 </sst>
 </file>

--- a/recipes/recipes.xlsx
+++ b/recipes/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einav\clone_here\einav-yehezkely.github.io\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E389AEC0-BD27-4251-AC79-AF34C856AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D158C54B-7C07-46A6-9C45-9AA0BA93DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{855B2972-48CC-4AAB-B0C8-66B655037AB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>/recipes/images/11.jpg</t>
+  </si>
+  <si>
+    <t>/recipes/images/10.jpg</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1179,6 +1182,9 @@
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
